--- a/data/trans_dic/DCD_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1400506038681092</v>
+        <v>0.1398810187749861</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2572025601553712</v>
+        <v>0.2572394192636719</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2081101938302053</v>
+        <v>0.2058795133099056</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1941337666824058</v>
+        <v>0.1919821400043229</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3102626302044544</v>
+        <v>0.3064492979845841</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2455669425333375</v>
+        <v>0.2451930717265919</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1110625851075806</v>
+        <v>0.1114550376256069</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2495708508177841</v>
+        <v>0.2505633596487607</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1860711096693784</v>
+        <v>0.1864025015334763</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1511966216890523</v>
+        <v>0.1536160824856775</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2975709957740196</v>
+        <v>0.2973126298599433</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2183574633697221</v>
+        <v>0.2187245041494324</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1001431502509962</v>
+        <v>0.1032690360269183</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2586533352183607</v>
+        <v>0.2628615957060406</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1881004174814493</v>
+        <v>0.1871765777218635</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1485358422240013</v>
+        <v>0.1487306525037356</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3191873560735085</v>
+        <v>0.3172895799624256</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2257691299872788</v>
+        <v>0.2264734246215727</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.129194324950261</v>
+        <v>0.127931431985597</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2603114257000491</v>
+        <v>0.2614903672696687</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2052819229170165</v>
+        <v>0.2048485931104658</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1700895688368386</v>
+        <v>0.1721237866357276</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3086231958310376</v>
+        <v>0.3078113891025872</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2374433156005837</v>
+        <v>0.2366744640987993</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.2810410391840895</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2127422016770779</v>
+        <v>0.2127422016770778</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.129867320865736</v>
+        <v>0.1292144771635987</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2660306105763812</v>
+        <v>0.2682196122602832</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.204175684077065</v>
+        <v>0.2040562668892864</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1525644645291823</v>
+        <v>0.1525813764115688</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2930435315698691</v>
+        <v>0.2933860130067676</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2220594526485106</v>
+        <v>0.2212876510752373</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>96734</v>
+        <v>96617</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>188833</v>
+        <v>188860</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>296534</v>
+        <v>293355</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>134090</v>
+        <v>132604</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>227789</v>
+        <v>224989</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>349906</v>
+        <v>349373</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>116495</v>
+        <v>116907</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>267409</v>
+        <v>268472</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>394544</v>
+        <v>395246</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>158593</v>
+        <v>161131</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>318840</v>
+        <v>318563</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>463003</v>
+        <v>463781</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>80422</v>
+        <v>82933</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>210093</v>
+        <v>213512</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>303845</v>
+        <v>302352</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>119285</v>
+        <v>119442</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>259263</v>
+        <v>257721</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>364692</v>
+        <v>365830</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>127910</v>
+        <v>126660</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>291299</v>
+        <v>292618</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>432961</v>
+        <v>432047</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>168399</v>
+        <v>170413</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>345362</v>
+        <v>344454</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>500793</v>
+        <v>499171</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>458790</v>
+        <v>456484</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>994144</v>
+        <v>1002324</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1484299</v>
+        <v>1483431</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>538974</v>
+        <v>539034</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1095090</v>
+        <v>1096370</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1614309</v>
+        <v>1608698</v>
       </c>
     </row>
     <row r="24">
